--- a/data/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
+++ b/data/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -850,7 +850,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -928,7 +928,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">

--- a/data/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
+++ b/data/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="249">
   <si>
     <t>site name</t>
   </si>
@@ -49,646 +49,682 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>26000</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>9700</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>7900</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>6490</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>6870</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>1576</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>7270</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>8660</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>1553</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>119</t>
+    <t>830.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>26000.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>5200.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>3900.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>690.0</t>
+  </si>
+  <si>
+    <t>1300.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>3300.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>2900.0</t>
+  </si>
+  <si>
+    <t>820.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>490.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>9700.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>370.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>940.0</t>
+  </si>
+  <si>
+    <t>560.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>488.0</t>
+  </si>
+  <si>
+    <t>452.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>6490.0</t>
+  </si>
+  <si>
+    <t>985.0</t>
+  </si>
+  <si>
+    <t>644.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>1616.0</t>
+  </si>
+  <si>
+    <t>448.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>2490.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>794.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>327.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>2046.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>880.0</t>
+  </si>
+  <si>
+    <t>6870.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>307.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>627.0</t>
+  </si>
+  <si>
+    <t>1576.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>7270.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>391.0</t>
+  </si>
+  <si>
+    <t>2098.0</t>
+  </si>
+  <si>
+    <t>958.0</t>
+  </si>
+  <si>
+    <t>8660.0</t>
+  </si>
+  <si>
+    <t>10500.0</t>
+  </si>
+  <si>
+    <t>1274.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>1145.0</t>
+  </si>
+  <si>
+    <t>959.0</t>
+  </si>
+  <si>
+    <t>631.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>988.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>706.0</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>1553.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>298.0</t>
+  </si>
+  <si>
+    <t>754.0</t>
+  </si>
+  <si>
+    <t>771.0</t>
+  </si>
+  <si>
+    <t>657.0</t>
+  </si>
+  <si>
+    <t>749.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>1789.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>2224.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>1842.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>2613.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>5794.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>311.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>481.0</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>1607.0</t>
+  </si>
+  <si>
+    <t>2495.0</t>
   </si>
   <si>
     <t>State of Environment</t>
@@ -701,6 +737,28 @@
   </si>
   <si>
     <t>Science - Contact Recreation Monthly</t>
+  </si>
+  <si>
+    <t>APHA 21st Ed. 9223 B
+Method updated 21 May 2007</t>
+  </si>
+  <si>
+    <t>APHA(2005) 9223, MIMM (2004) 11.A1.1</t>
+  </si>
+  <si>
+    <t>APHA 21st Edition,9223B:2005</t>
+  </si>
+  <si>
+    <t>APHA 21st Edition,9223B:2005 DF4</t>
+  </si>
+  <si>
+    <t>APHA 22nd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -1065,7 +1123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,13 +1172,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1137,13 +1198,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1160,13 +1224,16 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1183,13 +1250,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1206,13 +1276,16 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1229,13 +1302,16 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="F7" t="s">
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1252,13 +1328,16 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1275,10 +1354,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1298,10 +1380,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1321,10 +1406,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1344,10 +1432,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1367,10 +1458,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1390,10 +1484,13 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F14" t="s">
+        <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1413,10 +1510,13 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1436,10 +1536,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1459,10 +1562,13 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F17" t="s">
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1482,10 +1588,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>242</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1505,10 +1614,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F19" t="s">
+        <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1528,10 +1640,13 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F20" t="s">
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1551,10 +1666,13 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1574,10 +1692,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1597,10 +1718,13 @@
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F23" t="s">
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1620,10 +1744,13 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1643,10 +1770,13 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1666,10 +1796,13 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1689,10 +1822,13 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1712,10 +1848,13 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1735,13 +1874,16 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1758,10 +1900,13 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1781,10 +1926,13 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1804,10 +1952,13 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1827,10 +1978,13 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1850,10 +2004,13 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1873,10 +2030,13 @@
         <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1896,10 +2056,13 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1919,10 +2082,13 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1942,10 +2108,13 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F38" t="s">
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1965,10 +2134,13 @@
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1988,10 +2160,13 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2011,10 +2186,13 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2034,10 +2212,13 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2057,10 +2238,13 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F43" t="s">
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2080,10 +2264,13 @@
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F44" t="s">
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2103,10 +2290,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F45" t="s">
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2126,10 +2316,13 @@
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F46" t="s">
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2149,10 +2342,13 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F47" t="s">
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2172,10 +2368,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2195,10 +2394,13 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2218,10 +2420,13 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2241,10 +2446,13 @@
         <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F51" t="s">
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2264,10 +2472,13 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F52" t="s">
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2287,10 +2498,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2310,10 +2524,13 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F54" t="s">
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2333,13 +2550,16 @@
         <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F55" t="s">
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2356,10 +2576,13 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2379,10 +2602,13 @@
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F57" t="s">
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2402,10 +2628,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F58" t="s">
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2425,10 +2654,13 @@
         <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F59" t="s">
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2448,10 +2680,13 @@
         <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F60" t="s">
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2471,10 +2706,13 @@
         <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>243</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2494,10 +2732,13 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F62" t="s">
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2517,10 +2758,13 @@
         <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F63" t="s">
+        <v>243</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2540,10 +2784,13 @@
         <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F64" t="s">
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2563,13 +2810,16 @@
         <v>56</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2586,10 +2836,13 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2609,10 +2862,13 @@
         <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F67" t="s">
+        <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2632,10 +2888,13 @@
         <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F68" t="s">
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2655,10 +2914,13 @@
         <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F69" t="s">
+        <v>243</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2678,10 +2940,13 @@
         <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2701,10 +2966,13 @@
         <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F71" t="s">
+        <v>243</v>
       </c>
       <c r="G71" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2724,13 +2992,16 @@
         <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F72" t="s">
+        <v>243</v>
       </c>
       <c r="G72" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2747,10 +3018,13 @@
         <v>62</v>
       </c>
       <c r="E73" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F73" t="s">
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2770,10 +3044,13 @@
         <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F74" t="s">
+        <v>243</v>
       </c>
       <c r="G74" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2793,10 +3070,13 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F75" t="s">
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2816,10 +3096,13 @@
         <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F76" t="s">
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2839,10 +3122,13 @@
         <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F77" t="s">
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2862,10 +3148,13 @@
         <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F78" t="s">
+        <v>243</v>
       </c>
       <c r="G78" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2885,10 +3174,13 @@
         <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F79" t="s">
+        <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2908,10 +3200,13 @@
         <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F80" t="s">
+        <v>243</v>
       </c>
       <c r="G80" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2931,13 +3226,16 @@
         <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F81" t="s">
+        <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2954,10 +3252,13 @@
         <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F82" t="s">
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2977,10 +3278,13 @@
         <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F83" t="s">
+        <v>243</v>
       </c>
       <c r="G83" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3000,10 +3304,13 @@
         <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F84" t="s">
+        <v>243</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3023,13 +3330,16 @@
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F85" t="s">
+        <v>243</v>
       </c>
       <c r="G85" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3046,10 +3356,13 @@
         <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F86" t="s">
+        <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3069,10 +3382,13 @@
         <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F87" t="s">
+        <v>243</v>
       </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3092,10 +3408,13 @@
         <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F88" t="s">
+        <v>243</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3115,10 +3434,13 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F89" t="s">
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3138,10 +3460,13 @@
         <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F90" t="s">
+        <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3161,10 +3486,13 @@
         <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F91" t="s">
+        <v>243</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3184,10 +3512,13 @@
         <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F92" t="s">
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3207,10 +3538,13 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F93" t="s">
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3230,10 +3564,13 @@
         <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F94" t="s">
+        <v>243</v>
       </c>
       <c r="G94" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3253,10 +3590,13 @@
         <v>78</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F95" t="s">
+        <v>243</v>
       </c>
       <c r="G95" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3276,10 +3616,13 @@
         <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F96" t="s">
+        <v>243</v>
       </c>
       <c r="G96" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3299,10 +3642,13 @@
         <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F97" t="s">
+        <v>243</v>
       </c>
       <c r="G97" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3322,10 +3668,13 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F98" t="s">
+        <v>243</v>
       </c>
       <c r="G98" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3345,10 +3694,13 @@
         <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F99" t="s">
+        <v>243</v>
       </c>
       <c r="G99" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3368,10 +3720,13 @@
         <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F100" t="s">
+        <v>243</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3391,10 +3746,13 @@
         <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F101" t="s">
+        <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3414,10 +3772,13 @@
         <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F102" t="s">
+        <v>243</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3437,10 +3798,13 @@
         <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F103" t="s">
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3460,10 +3824,13 @@
         <v>82</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F104" t="s">
+        <v>243</v>
       </c>
       <c r="G104" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3483,10 +3850,13 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F105" t="s">
+        <v>243</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3506,13 +3876,16 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F106" t="s">
+        <v>243</v>
       </c>
       <c r="G106" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3529,10 +3902,13 @@
         <v>48</v>
       </c>
       <c r="E107" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F107" t="s">
+        <v>243</v>
       </c>
       <c r="G107" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3552,10 +3928,13 @@
         <v>84</v>
       </c>
       <c r="E108" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F108" t="s">
+        <v>243</v>
       </c>
       <c r="G108" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3572,13 +3951,16 @@
         <v>42102.62777777778</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E109" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F109" t="s">
+        <v>243</v>
       </c>
       <c r="G109" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3598,10 +3980,13 @@
         <v>33</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F110" t="s">
+        <v>243</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3618,13 +4003,16 @@
         <v>42116.65416666667</v>
       </c>
       <c r="D111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E111" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F111" t="s">
+        <v>243</v>
       </c>
       <c r="G111" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3644,10 +4032,13 @@
         <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F112" t="s">
+        <v>243</v>
       </c>
       <c r="G112" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3664,13 +4055,16 @@
         <v>42312.59930555556</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F113" t="s">
+        <v>243</v>
       </c>
       <c r="G113" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3690,10 +4084,13 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F114" t="s">
+        <v>243</v>
       </c>
       <c r="G114" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3713,10 +4110,13 @@
         <v>71</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F115" t="s">
+        <v>243</v>
       </c>
       <c r="G115" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3733,13 +4133,16 @@
         <v>42340.60069444445</v>
       </c>
       <c r="D116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F116" t="s">
+        <v>243</v>
       </c>
       <c r="G116" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3756,13 +4159,16 @@
         <v>42347.61597222222</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F117" t="s">
+        <v>243</v>
       </c>
       <c r="G117" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3779,13 +4185,16 @@
         <v>42354.59930555556</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F118" t="s">
+        <v>243</v>
       </c>
       <c r="G118" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3805,10 +4214,13 @@
         <v>71</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F119" t="s">
+        <v>243</v>
       </c>
       <c r="G119" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3828,10 +4240,13 @@
         <v>77</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F120" t="s">
+        <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3851,10 +4266,13 @@
         <v>37</v>
       </c>
       <c r="E121" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
+        <v>243</v>
       </c>
       <c r="G121" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3874,10 +4292,13 @@
         <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F122" t="s">
+        <v>243</v>
       </c>
       <c r="G122" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3897,10 +4318,13 @@
         <v>54</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F123" t="s">
+        <v>243</v>
       </c>
       <c r="G123" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3917,13 +4341,16 @@
         <v>42396.58958333333</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F124" t="s">
+        <v>243</v>
       </c>
       <c r="G124" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3943,10 +4370,13 @@
         <v>38</v>
       </c>
       <c r="E125" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
+        <v>243</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3963,13 +4393,16 @@
         <v>42410.58888888889</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F126" t="s">
+        <v>243</v>
       </c>
       <c r="G126" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3986,13 +4419,16 @@
         <v>42417.59652777778</v>
       </c>
       <c r="D127" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F127" t="s">
+        <v>243</v>
       </c>
       <c r="G127" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -4012,10 +4448,13 @@
         <v>42</v>
       </c>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F128" t="s">
+        <v>243</v>
       </c>
       <c r="G128" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4032,13 +4471,16 @@
         <v>42431.60208333333</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E129" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F129" t="s">
+        <v>243</v>
       </c>
       <c r="G129" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4055,13 +4497,16 @@
         <v>42438.57708333333</v>
       </c>
       <c r="D130" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F130" t="s">
+        <v>243</v>
       </c>
       <c r="G130" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4078,13 +4523,16 @@
         <v>42445.58819444444</v>
       </c>
       <c r="D131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F131" t="s">
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4101,13 +4549,16 @@
         <v>42451.59791666667</v>
       </c>
       <c r="D132" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E132" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F132" t="s">
+        <v>243</v>
       </c>
       <c r="G132" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4124,13 +4575,16 @@
         <v>42459.58888888889</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F133" t="s">
+        <v>243</v>
       </c>
       <c r="G133" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4150,10 +4604,13 @@
         <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F134" t="s">
+        <v>243</v>
       </c>
       <c r="G134" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4170,13 +4627,16 @@
         <v>42473.40347222222</v>
       </c>
       <c r="D135" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F135" t="s">
+        <v>243</v>
       </c>
       <c r="G135" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4193,13 +4653,16 @@
         <v>42480.60347222222</v>
       </c>
       <c r="D136" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E136" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F136" t="s">
+        <v>243</v>
       </c>
       <c r="G136" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4219,10 +4682,13 @@
         <v>40</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F137" t="s">
+        <v>243</v>
       </c>
       <c r="G137" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4239,16 +4705,19 @@
         <v>42676.55208333334</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E138" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F138" t="s">
+        <v>244</v>
       </c>
       <c r="G138" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4262,16 +4731,19 @@
         <v>42683.55763888889</v>
       </c>
       <c r="D139" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E139" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F139" t="s">
+        <v>244</v>
       </c>
       <c r="G139" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4285,16 +4757,19 @@
         <v>42690.56458333333</v>
       </c>
       <c r="D140" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E140" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F140" t="s">
+        <v>244</v>
       </c>
       <c r="G140" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4308,16 +4783,19 @@
         <v>42697.59375</v>
       </c>
       <c r="D141" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E141" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F141" t="s">
+        <v>244</v>
       </c>
       <c r="G141" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4331,16 +4809,19 @@
         <v>42704.38888888889</v>
       </c>
       <c r="D142" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E142" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F142" t="s">
+        <v>244</v>
       </c>
       <c r="G142" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4357,13 +4838,16 @@
         <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F143" t="s">
+        <v>244</v>
       </c>
       <c r="G143" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4380,13 +4864,16 @@
         <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F144" t="s">
+        <v>244</v>
       </c>
       <c r="G144" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4400,16 +4887,19 @@
         <v>42724.36180555556</v>
       </c>
       <c r="D145" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E145" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F145" t="s">
+        <v>244</v>
       </c>
       <c r="G145" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4426,13 +4916,16 @@
         <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F146" t="s">
+        <v>244</v>
       </c>
       <c r="G146" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4449,13 +4942,16 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F147" t="s">
+        <v>244</v>
       </c>
       <c r="G147" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4472,13 +4968,16 @@
         <v>61</v>
       </c>
       <c r="E148" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F148" t="s">
+        <v>244</v>
       </c>
       <c r="G148" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4495,13 +4994,16 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F149" t="s">
+        <v>244</v>
       </c>
       <c r="G149" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4518,13 +5020,16 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F150" t="s">
+        <v>244</v>
       </c>
       <c r="G150" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4541,13 +5046,16 @@
         <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F151" t="s">
+        <v>244</v>
       </c>
       <c r="G151" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4561,16 +5069,19 @@
         <v>42774.35625</v>
       </c>
       <c r="D152" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E152" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F152" t="s">
+        <v>244</v>
       </c>
       <c r="G152" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4584,16 +5095,19 @@
         <v>42780.36875</v>
       </c>
       <c r="D153" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E153" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F153" t="s">
+        <v>244</v>
       </c>
       <c r="G153" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4607,16 +5121,19 @@
         <v>42787.40972222222</v>
       </c>
       <c r="D154" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E154" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F154" t="s">
+        <v>244</v>
       </c>
       <c r="G154" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4633,13 +5150,16 @@
         <v>21</v>
       </c>
       <c r="E155" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F155" t="s">
+        <v>244</v>
       </c>
       <c r="G155" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4656,13 +5176,16 @@
         <v>61</v>
       </c>
       <c r="E156" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F156" t="s">
+        <v>244</v>
       </c>
       <c r="G156" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4679,13 +5202,16 @@
         <v>79</v>
       </c>
       <c r="E157" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F157" t="s">
+        <v>244</v>
       </c>
       <c r="G157" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4702,13 +5228,16 @@
         <v>26</v>
       </c>
       <c r="E158" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F158" t="s">
+        <v>244</v>
       </c>
       <c r="G158" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4722,16 +5251,19 @@
         <v>42822.37361111111</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E159" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F159" t="s">
+        <v>244</v>
       </c>
       <c r="G159" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4745,16 +5277,19 @@
         <v>42829.44513888889</v>
       </c>
       <c r="D160" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E160" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F160" t="s">
+        <v>244</v>
       </c>
       <c r="G160" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4771,13 +5306,16 @@
         <v>54</v>
       </c>
       <c r="E161" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F161" t="s">
+        <v>244</v>
       </c>
       <c r="G161" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4791,16 +5329,19 @@
         <v>42844.43263888889</v>
       </c>
       <c r="D162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E162" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="F162" t="s">
+        <v>244</v>
       </c>
       <c r="G162" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4817,13 +5358,16 @@
         <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F163" t="s">
+        <v>244</v>
       </c>
       <c r="G163" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4837,16 +5381,19 @@
         <v>43045.51388888889</v>
       </c>
       <c r="D164" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E164" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F164" t="s">
+        <v>245</v>
       </c>
       <c r="G164" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4863,13 +5410,16 @@
         <v>34</v>
       </c>
       <c r="E165" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F165" t="s">
+        <v>245</v>
       </c>
       <c r="G165" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4883,16 +5433,19 @@
         <v>43060.48958333334</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E166" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F166" t="s">
+        <v>245</v>
       </c>
       <c r="G166" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4906,16 +5459,19 @@
         <v>43068.49444444444</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E167" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F167" t="s">
+        <v>245</v>
       </c>
       <c r="G167" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4929,16 +5485,19 @@
         <v>43072.45833333334</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E168" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F168" t="s">
+        <v>245</v>
       </c>
       <c r="G168" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4952,16 +5511,19 @@
         <v>43081.50138888889</v>
       </c>
       <c r="D169" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E169" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F169" t="s">
+        <v>245</v>
       </c>
       <c r="G169" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4975,16 +5537,19 @@
         <v>43087.47916666666</v>
       </c>
       <c r="D170" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E170" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F170" t="s">
+        <v>245</v>
       </c>
       <c r="G170" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4998,16 +5563,19 @@
         <v>43096.44583333333</v>
       </c>
       <c r="D171" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E171" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F171" t="s">
+        <v>245</v>
       </c>
       <c r="G171" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5021,16 +5589,19 @@
         <v>43103.47222222222</v>
       </c>
       <c r="D172" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E172" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F172" t="s">
+        <v>245</v>
       </c>
       <c r="G172" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5044,16 +5615,19 @@
         <v>43108.45833333334</v>
       </c>
       <c r="D173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E173" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F173" t="s">
+        <v>245</v>
       </c>
       <c r="G173" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5067,16 +5641,19 @@
         <v>43114.44375</v>
       </c>
       <c r="D174" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E174" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F174" t="s">
+        <v>245</v>
       </c>
       <c r="G174" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5090,16 +5667,19 @@
         <v>43124.50138888889</v>
       </c>
       <c r="D175" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E175" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F175" t="s">
+        <v>245</v>
       </c>
       <c r="G175" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5113,16 +5693,19 @@
         <v>43129.49861111111</v>
       </c>
       <c r="D176" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E176" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F176" t="s">
+        <v>245</v>
       </c>
       <c r="G176" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5139,13 +5722,16 @@
         <v>83</v>
       </c>
       <c r="E177" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F177" t="s">
+        <v>245</v>
       </c>
       <c r="G177" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5159,16 +5745,19 @@
         <v>43144.48263888889</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E178" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F178" t="s">
+        <v>245</v>
       </c>
       <c r="G178" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5182,16 +5771,19 @@
         <v>43150.52083333334</v>
       </c>
       <c r="D179" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E179" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F179" t="s">
+        <v>245</v>
       </c>
       <c r="G179" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5205,16 +5797,19 @@
         <v>43156.45</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E180" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F180" t="s">
+        <v>245</v>
       </c>
       <c r="G180" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,16 +5823,19 @@
         <v>43165.48958333334</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E181" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F181" t="s">
+        <v>245</v>
       </c>
       <c r="G181" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5251,16 +5849,19 @@
         <v>43171.50138888889</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E182" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F182" t="s">
+        <v>245</v>
       </c>
       <c r="G182" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5274,16 +5875,19 @@
         <v>43177.48611111111</v>
       </c>
       <c r="D183" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E183" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F183" t="s">
+        <v>245</v>
       </c>
       <c r="G183" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5297,16 +5901,19 @@
         <v>43186.53125</v>
       </c>
       <c r="D184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E184" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F184" t="s">
+        <v>245</v>
       </c>
       <c r="G184" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5320,16 +5927,19 @@
         <v>43195.52430555555</v>
       </c>
       <c r="D185" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E185" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F185" t="s">
+        <v>245</v>
       </c>
       <c r="G185" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5343,16 +5953,19 @@
         <v>43198.50347222222</v>
       </c>
       <c r="D186" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E186" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F186" t="s">
+        <v>245</v>
       </c>
       <c r="G186" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5366,16 +5979,19 @@
         <v>43205.49652777778</v>
       </c>
       <c r="D187" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E187" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F187" t="s">
+        <v>245</v>
       </c>
       <c r="G187" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5389,16 +6005,19 @@
         <v>43213.53472222222</v>
       </c>
       <c r="D188" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E188" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F188" t="s">
+        <v>245</v>
       </c>
       <c r="G188" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5412,16 +6031,19 @@
         <v>43416.49861111111</v>
       </c>
       <c r="D189" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E189" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F189" t="s">
+        <v>245</v>
       </c>
       <c r="G189" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5435,16 +6057,19 @@
         <v>43422.46388888889</v>
       </c>
       <c r="D190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E190" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F190" t="s">
+        <v>245</v>
       </c>
       <c r="G190" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5458,16 +6083,19 @@
         <v>43430.53125</v>
       </c>
       <c r="D191" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E191" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F191" t="s">
+        <v>245</v>
       </c>
       <c r="G191" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5481,16 +6109,19 @@
         <v>43436.48611111111</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E192" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F192" t="s">
+        <v>245</v>
       </c>
       <c r="G192" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5504,16 +6135,19 @@
         <v>43444.50833333333</v>
       </c>
       <c r="D193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E193" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F193" t="s">
+        <v>245</v>
       </c>
       <c r="G193" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5527,16 +6161,19 @@
         <v>43450.47222222222</v>
       </c>
       <c r="D194" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E194" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F194" t="s">
+        <v>245</v>
       </c>
       <c r="G194" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5550,16 +6187,19 @@
         <v>43458.36180555556</v>
       </c>
       <c r="D195" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E195" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F195" t="s">
+        <v>245</v>
       </c>
       <c r="G195" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5573,16 +6213,19 @@
         <v>43464.45138888889</v>
       </c>
       <c r="D196" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E196" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F196" t="s">
+        <v>245</v>
       </c>
       <c r="G196" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5596,16 +6239,19 @@
         <v>43472.48958333334</v>
       </c>
       <c r="D197" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E197" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F197" t="s">
+        <v>245</v>
       </c>
       <c r="G197" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5622,13 +6268,16 @@
         <v>60</v>
       </c>
       <c r="E198" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F198" t="s">
+        <v>245</v>
       </c>
       <c r="G198" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5642,16 +6291,19 @@
         <v>43487.50625</v>
       </c>
       <c r="D199" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E199" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F199" t="s">
+        <v>245</v>
       </c>
       <c r="G199" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5665,16 +6317,19 @@
         <v>43492.50347222222</v>
       </c>
       <c r="D200" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E200" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F200" t="s">
+        <v>245</v>
       </c>
       <c r="G200" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5688,16 +6343,19 @@
         <v>43500.49305555555</v>
       </c>
       <c r="D201" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E201" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F201" t="s">
+        <v>245</v>
       </c>
       <c r="G201" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5711,16 +6369,19 @@
         <v>43506.48541666667</v>
       </c>
       <c r="D202" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E202" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F202" t="s">
+        <v>245</v>
       </c>
       <c r="G202" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5734,16 +6395,19 @@
         <v>43515.45486111111</v>
       </c>
       <c r="D203" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E203" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F203" t="s">
+        <v>245</v>
       </c>
       <c r="G203" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5757,16 +6421,19 @@
         <v>43520.45833333334</v>
       </c>
       <c r="D204" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E204" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F204" t="s">
+        <v>245</v>
       </c>
       <c r="G204" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5780,16 +6447,19 @@
         <v>43528.39305555556</v>
       </c>
       <c r="D205" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E205" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F205" t="s">
+        <v>245</v>
       </c>
       <c r="G205" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5803,16 +6473,19 @@
         <v>43534.48263888889</v>
       </c>
       <c r="D206" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E206" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F206" t="s">
+        <v>245</v>
       </c>
       <c r="G206" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,16 +6499,19 @@
         <v>43541.48611111111</v>
       </c>
       <c r="D207" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E207" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F207" t="s">
+        <v>245</v>
       </c>
       <c r="G207" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5849,16 +6525,19 @@
         <v>43548.47777777778</v>
       </c>
       <c r="D208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E208" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F208" t="s">
+        <v>245</v>
       </c>
       <c r="G208" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5872,16 +6551,19 @@
         <v>43556.49236111111</v>
       </c>
       <c r="D209" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E209" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F209" t="s">
+        <v>245</v>
       </c>
       <c r="G209" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5898,13 +6580,16 @@
         <v>34</v>
       </c>
       <c r="E210" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F210" t="s">
+        <v>245</v>
       </c>
       <c r="G210" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5921,13 +6606,16 @@
         <v>31</v>
       </c>
       <c r="E211" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F211" t="s">
+        <v>245</v>
       </c>
       <c r="G211" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5941,16 +6629,19 @@
         <v>43576.50694444445</v>
       </c>
       <c r="D212" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E212" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F212" t="s">
+        <v>245</v>
       </c>
       <c r="G212" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5964,16 +6655,19 @@
         <v>43584.52083333334</v>
       </c>
       <c r="D213" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E213" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F213" t="s">
+        <v>245</v>
       </c>
       <c r="G213" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5987,16 +6681,19 @@
         <v>43773.53611111111</v>
       </c>
       <c r="D214" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E214" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F214" t="s">
+        <v>246</v>
       </c>
       <c r="G214" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6010,16 +6707,19 @@
         <v>43779.48611111111</v>
       </c>
       <c r="D215" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E215" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F215" t="s">
+        <v>246</v>
       </c>
       <c r="G215" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6033,16 +6733,19 @@
         <v>43787.52986111111</v>
       </c>
       <c r="D216" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E216" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F216" t="s">
+        <v>246</v>
       </c>
       <c r="G216" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6056,16 +6759,19 @@
         <v>43793.45833333334</v>
       </c>
       <c r="D217" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E217" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F217" t="s">
+        <v>246</v>
       </c>
       <c r="G217" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6079,16 +6785,19 @@
         <v>43801.47361111111</v>
       </c>
       <c r="D218" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E218" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F218" t="s">
+        <v>246</v>
       </c>
       <c r="G218" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6102,16 +6811,19 @@
         <v>43807.48611111111</v>
       </c>
       <c r="D219" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E219" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F219" t="s">
+        <v>246</v>
       </c>
       <c r="G219" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6125,16 +6837,19 @@
         <v>43815.51666666667</v>
       </c>
       <c r="D220" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E220" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F220" t="s">
+        <v>246</v>
       </c>
       <c r="G220" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6148,16 +6863,19 @@
         <v>43821.51875</v>
       </c>
       <c r="D221" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E221" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F221" t="s">
+        <v>246</v>
       </c>
       <c r="G221" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6171,16 +6889,19 @@
         <v>43829.50069444445</v>
       </c>
       <c r="D222" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E222" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F222" t="s">
+        <v>246</v>
       </c>
       <c r="G222" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6194,16 +6915,19 @@
         <v>43835.49930555555</v>
       </c>
       <c r="D223" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E223" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F223" t="s">
+        <v>246</v>
       </c>
       <c r="G223" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6217,16 +6941,19 @@
         <v>43843.50486111111</v>
       </c>
       <c r="D224" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E224" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F224" t="s">
+        <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6243,13 +6970,16 @@
         <v>36</v>
       </c>
       <c r="E225" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F225" t="s">
+        <v>246</v>
       </c>
       <c r="G225" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6266,13 +6996,16 @@
         <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F226" t="s">
+        <v>246</v>
       </c>
       <c r="G226" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6286,16 +7019,19 @@
         <v>43863.51180555556</v>
       </c>
       <c r="D227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E227" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F227" t="s">
+        <v>246</v>
       </c>
       <c r="G227" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6309,16 +7045,19 @@
         <v>43871.48472222222</v>
       </c>
       <c r="D228" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E228" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F228" t="s">
+        <v>246</v>
       </c>
       <c r="G228" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6332,16 +7071,19 @@
         <v>43877.5</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E229" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F229" t="s">
+        <v>246</v>
       </c>
       <c r="G229" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6355,16 +7097,19 @@
         <v>43885.48125</v>
       </c>
       <c r="D230" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E230" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F230" t="s">
+        <v>246</v>
       </c>
       <c r="G230" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6378,16 +7123,19 @@
         <v>43891.47847222222</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E231" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F231" t="s">
+        <v>246</v>
       </c>
       <c r="G231" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6401,16 +7149,19 @@
         <v>43899.47777777778</v>
       </c>
       <c r="D232" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E232" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F232" t="s">
+        <v>246</v>
       </c>
       <c r="G232" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6424,16 +7175,19 @@
         <v>43905.49652777778</v>
       </c>
       <c r="D233" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E233" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F233" t="s">
+        <v>246</v>
       </c>
       <c r="G233" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6447,16 +7201,19 @@
         <v>44137.50347222222</v>
       </c>
       <c r="D234" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E234" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F234" t="s">
+        <v>246</v>
       </c>
       <c r="G234" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6470,16 +7227,19 @@
         <v>44143.49305555555</v>
       </c>
       <c r="D235" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E235" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F235" t="s">
+        <v>246</v>
       </c>
       <c r="G235" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6493,16 +7253,19 @@
         <v>44151.50138888889</v>
       </c>
       <c r="D236" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E236" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F236" t="s">
+        <v>246</v>
       </c>
       <c r="G236" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6516,16 +7279,19 @@
         <v>44157.48958333334</v>
       </c>
       <c r="D237" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E237" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F237" t="s">
+        <v>246</v>
       </c>
       <c r="G237" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6539,16 +7305,19 @@
         <v>44165.48958333334</v>
       </c>
       <c r="D238" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E238" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F238" t="s">
+        <v>246</v>
       </c>
       <c r="G238" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6562,16 +7331,19 @@
         <v>44171.48958333334</v>
       </c>
       <c r="D239" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E239" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F239" t="s">
+        <v>246</v>
       </c>
       <c r="G239" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6585,16 +7357,19 @@
         <v>44179.48194444444</v>
       </c>
       <c r="D240" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E240" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F240" t="s">
+        <v>246</v>
       </c>
       <c r="G240" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6608,16 +7383,19 @@
         <v>44185.48611111111</v>
       </c>
       <c r="D241" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E241" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F241" t="s">
+        <v>246</v>
       </c>
       <c r="G241" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6631,16 +7409,19 @@
         <v>44193.38958333333</v>
       </c>
       <c r="D242" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E242" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
       </c>
       <c r="G242" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6654,16 +7435,19 @@
         <v>44199.40138888889</v>
       </c>
       <c r="D243" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E243" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F243" t="s">
+        <v>246</v>
       </c>
       <c r="G243" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6677,16 +7461,19 @@
         <v>44207.48125</v>
       </c>
       <c r="D244" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E244" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F244" t="s">
+        <v>246</v>
       </c>
       <c r="G244" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6703,13 +7490,16 @@
         <v>66</v>
       </c>
       <c r="E245" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F245" t="s">
+        <v>246</v>
       </c>
       <c r="G245" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6723,16 +7513,19 @@
         <v>44222.49305555555</v>
       </c>
       <c r="D246" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E246" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F246" t="s">
+        <v>246</v>
       </c>
       <c r="G246" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6749,13 +7542,16 @@
         <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F247" t="s">
+        <v>246</v>
       </c>
       <c r="G247" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6769,16 +7565,19 @@
         <v>44236.49027777778</v>
       </c>
       <c r="D248" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E248" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F248" t="s">
+        <v>246</v>
       </c>
       <c r="G248" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6795,13 +7594,16 @@
         <v>80</v>
       </c>
       <c r="E249" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F249" t="s">
+        <v>246</v>
       </c>
       <c r="G249" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6815,16 +7617,19 @@
         <v>44249.48888888889</v>
       </c>
       <c r="D250" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E250" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F250" t="s">
+        <v>246</v>
       </c>
       <c r="G250" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6841,13 +7646,16 @@
         <v>37</v>
       </c>
       <c r="E251" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F251" t="s">
+        <v>246</v>
       </c>
       <c r="G251" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6861,16 +7669,19 @@
         <v>44263.47222222222</v>
       </c>
       <c r="D252" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E252" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F252" t="s">
+        <v>246</v>
       </c>
       <c r="G252" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6884,16 +7695,19 @@
         <v>44269.47430555556</v>
       </c>
       <c r="D253" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E253" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F253" t="s">
+        <v>246</v>
       </c>
       <c r="G253" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6907,16 +7721,19 @@
         <v>44283.49861111111</v>
       </c>
       <c r="D254" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E254" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F254" t="s">
+        <v>246</v>
       </c>
       <c r="G254" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -6933,13 +7750,16 @@
         <v>33</v>
       </c>
       <c r="E255" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F255" t="s">
+        <v>246</v>
       </c>
       <c r="G255" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6953,16 +7773,19 @@
         <v>44297.48472222222</v>
       </c>
       <c r="D256" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E256" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F256" t="s">
+        <v>246</v>
       </c>
       <c r="G256" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -6976,16 +7799,19 @@
         <v>44305.52638888889</v>
       </c>
       <c r="D257" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E257" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F257" t="s">
+        <v>246</v>
       </c>
       <c r="G257" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6999,16 +7825,19 @@
         <v>44311.52083333334</v>
       </c>
       <c r="D258" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E258" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F258" t="s">
+        <v>246</v>
       </c>
       <c r="G258" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7022,16 +7851,19 @@
         <v>44502.4875</v>
       </c>
       <c r="D259" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E259" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F259" t="s">
+        <v>246</v>
       </c>
       <c r="G259" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7045,16 +7877,19 @@
         <v>44509.49652777778</v>
       </c>
       <c r="D260" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E260" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F260" t="s">
+        <v>246</v>
       </c>
       <c r="G260" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7068,16 +7903,19 @@
         <v>44515.42777777778</v>
       </c>
       <c r="D261" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E261" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F261" t="s">
+        <v>246</v>
       </c>
       <c r="G261" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7091,16 +7929,19 @@
         <v>44523.50694444445</v>
       </c>
       <c r="D262" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E262" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F262" t="s">
+        <v>246</v>
       </c>
       <c r="G262" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7114,16 +7955,19 @@
         <v>44530.48402777778</v>
       </c>
       <c r="D263" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E263" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F263" t="s">
+        <v>246</v>
       </c>
       <c r="G263" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7137,16 +7981,19 @@
         <v>44537.48194444444</v>
       </c>
       <c r="D264" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E264" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F264" t="s">
+        <v>246</v>
       </c>
       <c r="G264" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7160,16 +8007,19 @@
         <v>44544.48958333334</v>
       </c>
       <c r="D265" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E265" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F265" t="s">
+        <v>246</v>
       </c>
       <c r="G265" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7183,16 +8033,19 @@
         <v>44551.45347222222</v>
       </c>
       <c r="D266" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E266" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F266" t="s">
+        <v>246</v>
       </c>
       <c r="G266" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7206,16 +8059,19 @@
         <v>44558.48263888889</v>
       </c>
       <c r="D267" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E267" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F267" t="s">
+        <v>246</v>
       </c>
       <c r="G267" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7229,16 +8085,19 @@
         <v>44565.49305555555</v>
       </c>
       <c r="D268" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E268" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F268" t="s">
+        <v>246</v>
       </c>
       <c r="G268" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7252,16 +8111,19 @@
         <v>44572.45416666667</v>
       </c>
       <c r="D269" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E269" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F269" t="s">
+        <v>246</v>
       </c>
       <c r="G269" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7275,16 +8137,19 @@
         <v>44579.49652777778</v>
       </c>
       <c r="D270" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E270" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F270" t="s">
+        <v>246</v>
       </c>
       <c r="G270" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7298,16 +8163,19 @@
         <v>44586.43055555555</v>
       </c>
       <c r="D271" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E271" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F271" t="s">
+        <v>246</v>
       </c>
       <c r="G271" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7321,16 +8189,19 @@
         <v>44593.45416666667</v>
       </c>
       <c r="D272" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E272" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F272" t="s">
+        <v>246</v>
       </c>
       <c r="G272" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7344,16 +8215,19 @@
         <v>44600.47152777778</v>
       </c>
       <c r="D273" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E273" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F273" t="s">
+        <v>246</v>
       </c>
       <c r="G273" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7367,16 +8241,19 @@
         <v>44607.45486111111</v>
       </c>
       <c r="D274" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E274" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F274" t="s">
+        <v>246</v>
       </c>
       <c r="G274" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7390,16 +8267,19 @@
         <v>44614.46319444444</v>
       </c>
       <c r="D275" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E275" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F275" t="s">
+        <v>246</v>
       </c>
       <c r="G275" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7413,16 +8293,19 @@
         <v>44621.50347222222</v>
       </c>
       <c r="D276" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E276" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F276" t="s">
+        <v>246</v>
       </c>
       <c r="G276" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7436,16 +8319,19 @@
         <v>44628.45138888889</v>
       </c>
       <c r="D277" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E277" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F277" t="s">
+        <v>246</v>
       </c>
       <c r="G277" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7459,16 +8345,19 @@
         <v>44635.46111111111</v>
       </c>
       <c r="D278" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E278" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F278" t="s">
+        <v>246</v>
       </c>
       <c r="G278" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7482,16 +8371,19 @@
         <v>44642.49305555555</v>
       </c>
       <c r="D279" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E279" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F279" t="s">
+        <v>246</v>
       </c>
       <c r="G279" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7505,16 +8397,19 @@
         <v>44649.47222222222</v>
       </c>
       <c r="D280" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E280" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F280" t="s">
+        <v>246</v>
       </c>
       <c r="G280" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7531,13 +8426,16 @@
         <v>31</v>
       </c>
       <c r="E281" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F281" t="s">
+        <v>246</v>
       </c>
       <c r="G281" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7551,16 +8449,19 @@
         <v>44663.49652777778</v>
       </c>
       <c r="D282" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E282" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F282" t="s">
+        <v>246</v>
       </c>
       <c r="G282" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7574,16 +8475,19 @@
         <v>44671.49791666667</v>
       </c>
       <c r="D283" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E283" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F283" t="s">
+        <v>246</v>
       </c>
       <c r="G283" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7597,16 +8501,19 @@
         <v>44678.53472222222</v>
       </c>
       <c r="D284" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E284" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F284" t="s">
+        <v>246</v>
       </c>
       <c r="G284" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7620,16 +8527,19 @@
         <v>44866.48472222222</v>
       </c>
       <c r="D285" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E285" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F285" t="s">
+        <v>246</v>
       </c>
       <c r="G285" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7643,16 +8553,19 @@
         <v>44872.57291666666</v>
       </c>
       <c r="D286" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E286" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F286" t="s">
+        <v>246</v>
       </c>
       <c r="G286" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7666,16 +8579,19 @@
         <v>44879.58333333334</v>
       </c>
       <c r="D287" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E287" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F287" t="s">
+        <v>246</v>
       </c>
       <c r="G287" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7689,16 +8605,19 @@
         <v>44886.64305555556</v>
       </c>
       <c r="D288" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E288" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F288" t="s">
+        <v>246</v>
       </c>
       <c r="G288" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7712,16 +8631,19 @@
         <v>44893.5625</v>
       </c>
       <c r="D289" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E289" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F289" t="s">
+        <v>246</v>
       </c>
       <c r="G289" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7735,16 +8657,19 @@
         <v>44900.58958333333</v>
       </c>
       <c r="D290" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E290" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F290" t="s">
+        <v>246</v>
       </c>
       <c r="G290" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7758,16 +8683,19 @@
         <v>44907.51180555556</v>
       </c>
       <c r="D291" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E291" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F291" t="s">
+        <v>246</v>
       </c>
       <c r="G291" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7781,16 +8709,19 @@
         <v>44914.52708333333</v>
       </c>
       <c r="D292" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E292" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F292" t="s">
+        <v>246</v>
       </c>
       <c r="G292" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7804,16 +8735,19 @@
         <v>44921.53194444445</v>
       </c>
       <c r="D293" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E293" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F293" t="s">
+        <v>246</v>
       </c>
       <c r="G293" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -7827,16 +8761,19 @@
         <v>44928.52847222222</v>
       </c>
       <c r="D294" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E294" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F294" t="s">
+        <v>246</v>
       </c>
       <c r="G294" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -7850,16 +8787,19 @@
         <v>44935.50347222222</v>
       </c>
       <c r="D295" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E295" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F295" t="s">
+        <v>246</v>
       </c>
       <c r="G295" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7873,16 +8813,19 @@
         <v>44942.47083333333</v>
       </c>
       <c r="D296" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E296" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F296" t="s">
+        <v>246</v>
       </c>
       <c r="G296" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -7896,16 +8839,19 @@
         <v>44950.46944444445</v>
       </c>
       <c r="D297" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E297" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F297" t="s">
+        <v>246</v>
       </c>
       <c r="G297" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -7919,16 +8865,19 @@
         <v>44956.44652777778</v>
       </c>
       <c r="D298" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E298" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F298" t="s">
+        <v>246</v>
       </c>
       <c r="G298" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -7942,16 +8891,19 @@
         <v>44964.48541666667</v>
       </c>
       <c r="D299" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E299" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F299" t="s">
+        <v>246</v>
       </c>
       <c r="G299" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -7965,16 +8917,19 @@
         <v>44970.48333333333</v>
       </c>
       <c r="D300" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E300" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F300" t="s">
+        <v>246</v>
       </c>
       <c r="G300" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -7988,16 +8943,19 @@
         <v>44977.47708333333</v>
       </c>
       <c r="D301" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E301" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F301" t="s">
+        <v>246</v>
       </c>
       <c r="G301" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8011,16 +8969,19 @@
         <v>44984.46319444444</v>
       </c>
       <c r="D302" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E302" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F302" t="s">
+        <v>246</v>
       </c>
       <c r="G302" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8034,16 +8995,19 @@
         <v>44991.47361111111</v>
       </c>
       <c r="D303" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E303" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F303" t="s">
+        <v>246</v>
       </c>
       <c r="G303" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8057,16 +9021,19 @@
         <v>44998.45416666667</v>
       </c>
       <c r="D304" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E304" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F304" t="s">
+        <v>246</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8080,16 +9047,19 @@
         <v>45005.46388888889</v>
       </c>
       <c r="D305" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E305" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F305" t="s">
+        <v>246</v>
       </c>
       <c r="G305" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8103,16 +9073,19 @@
         <v>45012.45972222222</v>
       </c>
       <c r="D306" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E306" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F306" t="s">
+        <v>246</v>
       </c>
       <c r="G306" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8126,16 +9099,19 @@
         <v>45019.50069444445</v>
       </c>
       <c r="D307" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E307" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F307" t="s">
+        <v>246</v>
       </c>
       <c r="G307" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8149,16 +9125,19 @@
         <v>45027.52847222222</v>
       </c>
       <c r="D308" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E308" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F308" t="s">
+        <v>246</v>
       </c>
       <c r="G308" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8172,16 +9151,19 @@
         <v>45033.52013888889</v>
       </c>
       <c r="D309" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E309" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F309" t="s">
+        <v>246</v>
       </c>
       <c r="G309" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8195,16 +9177,19 @@
         <v>45040.52916666667</v>
       </c>
       <c r="D310" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E310" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F310" t="s">
+        <v>246</v>
       </c>
       <c r="G310" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8218,16 +9203,19 @@
         <v>45236.51666666667</v>
       </c>
       <c r="D311" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E311" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F311" t="s">
+        <v>246</v>
       </c>
       <c r="G311" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8241,16 +9229,19 @@
         <v>45243.51111111111</v>
       </c>
       <c r="D312" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E312" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F312" t="s">
+        <v>246</v>
       </c>
       <c r="G312" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8264,16 +9255,19 @@
         <v>45250.50208333333</v>
       </c>
       <c r="D313" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E313" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F313" t="s">
+        <v>246</v>
       </c>
       <c r="G313" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8287,16 +9281,19 @@
         <v>45257.52916666667</v>
       </c>
       <c r="D314" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E314" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F314" t="s">
+        <v>246</v>
       </c>
       <c r="G314" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8310,16 +9307,19 @@
         <v>45264.52986111111</v>
       </c>
       <c r="D315" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E315" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F315" t="s">
+        <v>246</v>
       </c>
       <c r="G315" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8336,13 +9336,16 @@
         <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F316" t="s">
+        <v>246</v>
       </c>
       <c r="G316" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8356,16 +9359,19 @@
         <v>45278.51180555556</v>
       </c>
       <c r="D317" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E317" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F317" t="s">
+        <v>246</v>
       </c>
       <c r="G317" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8379,16 +9385,19 @@
         <v>45287.44166666667</v>
       </c>
       <c r="D318" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E318" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F318" t="s">
+        <v>246</v>
       </c>
       <c r="G318" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8402,16 +9411,19 @@
         <v>45294.41180555556</v>
       </c>
       <c r="D319" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E319" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F319" t="s">
+        <v>246</v>
       </c>
       <c r="G319" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8425,16 +9437,19 @@
         <v>45299.49652777778</v>
       </c>
       <c r="D320" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E320" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F320" t="s">
+        <v>246</v>
       </c>
       <c r="G320" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8448,16 +9463,19 @@
         <v>45306.44444444445</v>
       </c>
       <c r="D321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E321" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F321" t="s">
+        <v>246</v>
       </c>
       <c r="G321" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8471,16 +9489,19 @@
         <v>45314.44097222222</v>
       </c>
       <c r="D322" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E322" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F322" t="s">
+        <v>246</v>
       </c>
       <c r="G322" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8494,16 +9515,19 @@
         <v>45320.51458333333</v>
       </c>
       <c r="D323" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E323" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F323" t="s">
+        <v>246</v>
       </c>
       <c r="G323" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8517,16 +9541,19 @@
         <v>45327.45277777778</v>
       </c>
       <c r="D324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E324" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F324" t="s">
+        <v>246</v>
       </c>
       <c r="G324" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8540,16 +9567,19 @@
         <v>45334.49652777778</v>
       </c>
       <c r="D325" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E325" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F325" t="s">
+        <v>246</v>
       </c>
       <c r="G325" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8563,16 +9593,19 @@
         <v>45341.52986111111</v>
       </c>
       <c r="D326" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E326" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F326" t="s">
+        <v>246</v>
       </c>
       <c r="G326" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8586,16 +9619,19 @@
         <v>45348.5</v>
       </c>
       <c r="D327" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E327" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F327" t="s">
+        <v>246</v>
       </c>
       <c r="G327" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8609,16 +9645,19 @@
         <v>45355.50694444445</v>
       </c>
       <c r="D328" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E328" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F328" t="s">
+        <v>246</v>
       </c>
       <c r="G328" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8632,16 +9671,19 @@
         <v>45362.50069444445</v>
       </c>
       <c r="D329" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E329" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F329" t="s">
+        <v>246</v>
       </c>
       <c r="G329" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8655,16 +9697,19 @@
         <v>45369.44444444445</v>
       </c>
       <c r="D330" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E330" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F330" t="s">
+        <v>246</v>
       </c>
       <c r="G330" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8678,16 +9723,19 @@
         <v>45376.46527777778</v>
       </c>
       <c r="D331" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E331" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F331" t="s">
+        <v>246</v>
       </c>
       <c r="G331" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -8704,13 +9752,16 @@
         <v>55</v>
       </c>
       <c r="E332" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F332" t="s">
+        <v>246</v>
       </c>
       <c r="G332" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -8724,16 +9775,19 @@
         <v>45390.53819444445</v>
       </c>
       <c r="D333" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E333" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F333" t="s">
+        <v>246</v>
       </c>
       <c r="G333" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -8747,16 +9801,19 @@
         <v>45397.55902777778</v>
       </c>
       <c r="D334" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E334" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F334" t="s">
+        <v>246</v>
       </c>
       <c r="G334" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -8770,16 +9827,669 @@
         <v>45404.52083333334</v>
       </c>
       <c r="D335" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E335" t="s">
+        <v>239</v>
+      </c>
+      <c r="F335" t="s">
+        <v>246</v>
+      </c>
+      <c r="G335" t="s">
+        <v>248</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45600.49513888889</v>
+      </c>
+      <c r="D336" t="s">
+        <v>158</v>
+      </c>
+      <c r="E336" t="s">
+        <v>239</v>
+      </c>
+      <c r="F336" t="s">
+        <v>247</v>
+      </c>
+      <c r="G336" t="s">
+        <v>248</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45607.47222222222</v>
+      </c>
+      <c r="D337" t="s">
+        <v>226</v>
+      </c>
+      <c r="E337" t="s">
+        <v>239</v>
+      </c>
+      <c r="F337" t="s">
+        <v>247</v>
+      </c>
+      <c r="G337" t="s">
+        <v>248</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45614.47569444445</v>
+      </c>
+      <c r="D338" t="s">
+        <v>60</v>
+      </c>
+      <c r="E338" t="s">
+        <v>239</v>
+      </c>
+      <c r="F338" t="s">
+        <v>247</v>
+      </c>
+      <c r="G338" t="s">
+        <v>248</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45621.4375</v>
+      </c>
+      <c r="D339" t="s">
         <v>227</v>
       </c>
-      <c r="G335" t="s">
+      <c r="E339" t="s">
+        <v>239</v>
+      </c>
+      <c r="F339" t="s">
+        <v>247</v>
+      </c>
+      <c r="G339" t="s">
+        <v>248</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45635.47222222222</v>
+      </c>
+      <c r="D340" t="s">
+        <v>228</v>
+      </c>
+      <c r="E340" t="s">
+        <v>239</v>
+      </c>
+      <c r="F340" t="s">
+        <v>247</v>
+      </c>
+      <c r="G340" t="s">
+        <v>248</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45642.48402777778</v>
+      </c>
+      <c r="D341" t="s">
         <v>229</v>
       </c>
-      <c r="H335">
-        <v>0</v>
+      <c r="E341" t="s">
+        <v>239</v>
+      </c>
+      <c r="F341" t="s">
+        <v>247</v>
+      </c>
+      <c r="G341" t="s">
+        <v>248</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45649.45</v>
+      </c>
+      <c r="D342" t="s">
+        <v>227</v>
+      </c>
+      <c r="E342" t="s">
+        <v>239</v>
+      </c>
+      <c r="F342" t="s">
+        <v>247</v>
+      </c>
+      <c r="G342" t="s">
+        <v>248</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45656.44930555556</v>
+      </c>
+      <c r="D343" t="s">
+        <v>223</v>
+      </c>
+      <c r="E343" t="s">
+        <v>239</v>
+      </c>
+      <c r="F343" t="s">
+        <v>247</v>
+      </c>
+      <c r="G343" t="s">
+        <v>248</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45663.48125</v>
+      </c>
+      <c r="D344" t="s">
+        <v>144</v>
+      </c>
+      <c r="E344" t="s">
+        <v>239</v>
+      </c>
+      <c r="F344" t="s">
+        <v>247</v>
+      </c>
+      <c r="G344" t="s">
+        <v>248</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45670.50277777778</v>
+      </c>
+      <c r="D345" t="s">
+        <v>230</v>
+      </c>
+      <c r="E345" t="s">
+        <v>239</v>
+      </c>
+      <c r="F345" t="s">
+        <v>247</v>
+      </c>
+      <c r="G345" t="s">
+        <v>248</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45678.47986111111</v>
+      </c>
+      <c r="D346" t="s">
+        <v>222</v>
+      </c>
+      <c r="E346" t="s">
+        <v>239</v>
+      </c>
+      <c r="F346" t="s">
+        <v>247</v>
+      </c>
+      <c r="G346" t="s">
+        <v>248</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45684.4875</v>
+      </c>
+      <c r="D347" t="s">
+        <v>34</v>
+      </c>
+      <c r="E347" t="s">
+        <v>239</v>
+      </c>
+      <c r="F347" t="s">
+        <v>247</v>
+      </c>
+      <c r="G347" t="s">
+        <v>248</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45691.44097222222</v>
+      </c>
+      <c r="D348" t="s">
+        <v>109</v>
+      </c>
+      <c r="E348" t="s">
+        <v>239</v>
+      </c>
+      <c r="F348" t="s">
+        <v>247</v>
+      </c>
+      <c r="G348" t="s">
+        <v>248</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45698.46527777778</v>
+      </c>
+      <c r="D349" t="s">
+        <v>184</v>
+      </c>
+      <c r="E349" t="s">
+        <v>239</v>
+      </c>
+      <c r="F349" t="s">
+        <v>247</v>
+      </c>
+      <c r="G349" t="s">
+        <v>248</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45705.45277777778</v>
+      </c>
+      <c r="D350" t="s">
+        <v>162</v>
+      </c>
+      <c r="E350" t="s">
+        <v>239</v>
+      </c>
+      <c r="F350" t="s">
+        <v>247</v>
+      </c>
+      <c r="G350" t="s">
+        <v>248</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45712.48263888889</v>
+      </c>
+      <c r="D351" t="s">
+        <v>231</v>
+      </c>
+      <c r="E351" t="s">
+        <v>239</v>
+      </c>
+      <c r="F351" t="s">
+        <v>247</v>
+      </c>
+      <c r="G351" t="s">
+        <v>248</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45720.43819444445</v>
+      </c>
+      <c r="D352" t="s">
+        <v>35</v>
+      </c>
+      <c r="E352" t="s">
+        <v>239</v>
+      </c>
+      <c r="F352" t="s">
+        <v>247</v>
+      </c>
+      <c r="G352" t="s">
+        <v>248</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45726.47291666667</v>
+      </c>
+      <c r="D353" t="s">
+        <v>113</v>
+      </c>
+      <c r="E353" t="s">
+        <v>239</v>
+      </c>
+      <c r="F353" t="s">
+        <v>247</v>
+      </c>
+      <c r="G353" t="s">
+        <v>248</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45733.47152777778</v>
+      </c>
+      <c r="D354" t="s">
+        <v>55</v>
+      </c>
+      <c r="E354" t="s">
+        <v>239</v>
+      </c>
+      <c r="F354" t="s">
+        <v>247</v>
+      </c>
+      <c r="G354" t="s">
+        <v>248</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45740.47638888889</v>
+      </c>
+      <c r="D355" t="s">
+        <v>232</v>
+      </c>
+      <c r="E355" t="s">
+        <v>239</v>
+      </c>
+      <c r="F355" t="s">
+        <v>247</v>
+      </c>
+      <c r="G355" t="s">
+        <v>248</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45747.4375</v>
+      </c>
+      <c r="D356" t="s">
+        <v>55</v>
+      </c>
+      <c r="E356" t="s">
+        <v>239</v>
+      </c>
+      <c r="F356" t="s">
+        <v>247</v>
+      </c>
+      <c r="G356" t="s">
+        <v>248</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45754.50625</v>
+      </c>
+      <c r="D357" t="s">
+        <v>233</v>
+      </c>
+      <c r="E357" t="s">
+        <v>239</v>
+      </c>
+      <c r="F357" t="s">
+        <v>247</v>
+      </c>
+      <c r="G357" t="s">
+        <v>248</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45761.48888888889</v>
+      </c>
+      <c r="D358" t="s">
+        <v>234</v>
+      </c>
+      <c r="E358" t="s">
+        <v>239</v>
+      </c>
+      <c r="F358" t="s">
+        <v>247</v>
+      </c>
+      <c r="G358" t="s">
+        <v>248</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45769.48611111111</v>
+      </c>
+      <c r="D359" t="s">
+        <v>235</v>
+      </c>
+      <c r="E359" t="s">
+        <v>239</v>
+      </c>
+      <c r="F359" t="s">
+        <v>247</v>
+      </c>
+      <c r="G359" t="s">
+        <v>248</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45775.54166666666</v>
+      </c>
+      <c r="D360" t="s">
+        <v>236</v>
+      </c>
+      <c r="E360" t="s">
+        <v>239</v>
+      </c>
+      <c r="F360" t="s">
+        <v>247</v>
+      </c>
+      <c r="G360" t="s">
+        <v>248</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
